--- a/Datasets/csv_xlsx/cert_list.xlsx
+++ b/Datasets/csv_xlsx/cert_list.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Austen\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15713\Desktop\Datasets\csv_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8353F780-97CA-4A3E-9C30-A7C9D9CAA918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AFA95B-AF80-4E56-960C-6F9AA8F9C72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18720" yWindow="966" windowWidth="7860" windowHeight="1140" xr2:uid="{C21930CA-70BD-42A0-98CF-7518B34F38EB}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{C21930CA-70BD-42A0-98CF-7518B34F38EB}"/>
   </bookViews>
   <sheets>
     <sheet name="cert list" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="names" sheetId="4" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'cert list'!$A$1:$H$100</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="537">
   <si>
     <t>Cost</t>
   </si>
@@ -13334,6 +13338,291 @@
 S0102: Skill in applying technical delivery capabilities.
 S0166: Skill in identifying gaps in technical delivery capabilities.</t>
   </si>
+  <si>
+    <t>Certified Information Systems Auditor</t>
+  </si>
+  <si>
+    <t>Certified Information Security Manager</t>
+  </si>
+  <si>
+    <t>Certified Ethical Hacker</t>
+  </si>
+  <si>
+    <t>GIAC Security Essentials Certification</t>
+  </si>
+  <si>
+    <t>Systems Security Certified Practitioner</t>
+  </si>
+  <si>
+    <t>CompTIA Advanced Security Practitioner</t>
+  </si>
+  <si>
+    <t>GIAC Certified Incident Handler</t>
+  </si>
+  <si>
+    <t>Offensive Security Professional</t>
+  </si>
+  <si>
+    <t>CISS Certified IPv6 Security Specialist</t>
+  </si>
+  <si>
+    <t>CVFE Certified Virtualization Forensics Examiner</t>
+  </si>
+  <si>
+    <t>CCSO Certified Cloud Security Officer</t>
+  </si>
+  <si>
+    <t>CVCP Certified Virtualization and Cloud Principles</t>
+  </si>
+  <si>
+    <t>CISMS-LA Certified Information Security Management Systems Lead Auditor</t>
+  </si>
+  <si>
+    <t>CISMS-LI Certified Information Security Management Systems Lead Implementer</t>
+  </si>
+  <si>
+    <t>Certified in Risk and Information Systems Control</t>
+  </si>
+  <si>
+    <t>Certified Cloud Security Professional</t>
+  </si>
+  <si>
+    <t>Cybersecurity Analyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google Cloud Certified, Professional Cloud Security Engineer </t>
+  </si>
+  <si>
+    <t>HealthCare Information Security and Privacy Practitioner</t>
+  </si>
+  <si>
+    <t>Certificate of Cloud Security Knowledge</t>
+  </si>
+  <si>
+    <t>EC-Certified Security Analyst</t>
+  </si>
+  <si>
+    <t>GIAC Penetration Tester</t>
+  </si>
+  <si>
+    <t>Certified Cyber Forensics Professional</t>
+  </si>
+  <si>
+    <t>Certified Authorized Professionals</t>
+  </si>
+  <si>
+    <t>Cisco Cybersecurity Specialist</t>
+  </si>
+  <si>
+    <t>Cisco Certified Network Administrator</t>
+  </si>
+  <si>
+    <t>Juniper Networks Certified Professional Security</t>
+  </si>
+  <si>
+    <t>Certified Information Privacy Manager</t>
+  </si>
+  <si>
+    <t>Certified Chief Information Security Officer</t>
+  </si>
+  <si>
+    <t>GIAC Security Expert</t>
+  </si>
+  <si>
+    <t>GIAC Certified Forensics Analyst</t>
+  </si>
+  <si>
+    <t>GIAC Industrial Cyber Security Professionals</t>
+  </si>
+  <si>
+    <t>GIAC Certified Intrusion Analyst</t>
+  </si>
+  <si>
+    <t>GIAC Security Leadership Certification</t>
+  </si>
+  <si>
+    <t>Cisco Certified Network Professional</t>
+  </si>
+  <si>
+    <t>Cisco Certified Security Professional</t>
+  </si>
+  <si>
+    <t>Certified Information Privacy Professionals</t>
+  </si>
+  <si>
+    <t>Certified Secure Software Lifecycle Professional</t>
+  </si>
+  <si>
+    <t>Insider Threat Program Manager</t>
+  </si>
+  <si>
+    <t>Insider Threat Vulnerability Assessment</t>
+  </si>
+  <si>
+    <t>Insider Threat Program Evaluator</t>
+  </si>
+  <si>
+    <t>Certified Network Defender</t>
+  </si>
+  <si>
+    <t>Certified Network Defense Architect</t>
+  </si>
+  <si>
+    <t>Certified Encryption Specialist</t>
+  </si>
+  <si>
+    <t>Computer Hacking Forensic Investigator</t>
+  </si>
+  <si>
+    <t>Licensed Penetration Tester</t>
+  </si>
+  <si>
+    <t>Certified Secure Programmer</t>
+  </si>
+  <si>
+    <t>Disaster Recovery Professionals</t>
+  </si>
+  <si>
+    <t>Certified Secure Computer User</t>
+  </si>
+  <si>
+    <t>Certified Security Specialist</t>
+  </si>
+  <si>
+    <t>Certified Expert Penetration Tester</t>
+  </si>
+  <si>
+    <t>Certified Application Security Specialist</t>
+  </si>
+  <si>
+    <t>Certified SCADA Security Architect</t>
+  </si>
+  <si>
+    <t>Certified Reverse Engineering Analyst</t>
+  </si>
+  <si>
+    <t>Certified Penetration Tester</t>
+  </si>
+  <si>
+    <t>Certified Data Recovery Professionals</t>
+  </si>
+  <si>
+    <t>Certified Computer Forensics Examiner</t>
+  </si>
+  <si>
+    <t>Certified in the Governance of Enterprise IT</t>
+  </si>
+  <si>
+    <t>Certified Cyber Intelligence Investigator</t>
+  </si>
+  <si>
+    <t>Cybersecurity Nexus</t>
+  </si>
+  <si>
+    <t>Certified Counter Intelligence Threat Analyst</t>
+  </si>
+  <si>
+    <t>Certified Cyber Intelligence Professional</t>
+  </si>
+  <si>
+    <t>Certified Expert in Cyber Investigations</t>
+  </si>
+  <si>
+    <t>Certified Social Media Intelligence Analyst</t>
+  </si>
+  <si>
+    <t>Certified Social Media Intelligence Expert</t>
+  </si>
+  <si>
+    <t>Offensive Security Certified Professional</t>
+  </si>
+  <si>
+    <t>Offensive Security Wireless Professional</t>
+  </si>
+  <si>
+    <t>Offensive Security Certified Expert</t>
+  </si>
+  <si>
+    <t>Offensive Security Exploitation Expert</t>
+  </si>
+  <si>
+    <t>Offensive Security Web Expert</t>
+  </si>
+  <si>
+    <t>Certified Information Systems Security Officer</t>
+  </si>
+  <si>
+    <t>Certified Penetration Testing Engineer</t>
+  </si>
+  <si>
+    <t>Certified Penetration Testing Consultant</t>
+  </si>
+  <si>
+    <t>Certified Disaster Recovery Engineer</t>
+  </si>
+  <si>
+    <t>Certified Digital Forensics Examiner</t>
+  </si>
+  <si>
+    <t>Certified Network Forensics Examiner</t>
+  </si>
+  <si>
+    <t>Certified Secure Web Applications Engineer</t>
+  </si>
+  <si>
+    <t>Certified Secure Web Applications Consultant</t>
+  </si>
+  <si>
+    <t>Certified Incident Handling Engineer</t>
+  </si>
+  <si>
+    <t>Certified Wireless Security Engineer</t>
+  </si>
+  <si>
+    <t>Certified Vulnerability Assessor</t>
+  </si>
+  <si>
+    <t>Certified Security Leadership Officer</t>
+  </si>
+  <si>
+    <t>Certified Professional Ethical Hacker</t>
+  </si>
+  <si>
+    <t>Certified Information Systems Security Manager</t>
+  </si>
+  <si>
+    <t>Certified Information Systems Security Auditor</t>
+  </si>
+  <si>
+    <t>Certified Information Systems Risk Manager</t>
+  </si>
+  <si>
+    <t>Information Systems Certification and Accreditation Professional</t>
+  </si>
+  <si>
+    <t>Certified Security Principles</t>
+  </si>
+  <si>
+    <t>Certified Security Awareness Principles</t>
+  </si>
+  <si>
+    <t>Certified Virtualization Engineer</t>
+  </si>
+  <si>
+    <t>Certified Virtualization Security Engineer</t>
+  </si>
+  <si>
+    <t>Certified Cloud Security Consultant</t>
+  </si>
+  <si>
+    <t>Certified Virtual Desktop Engineer</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certified Information Systems Security </t>
+  </si>
 </sst>
 </file>
 
@@ -13396,7 +13685,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -13410,11 +13699,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="222">
+  <dxfs count="57">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -13442,1656 +13737,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -15947,8 +14592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A61A31-01EE-4CD6-BF50-0668487343CE}">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B94" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -17842,6 +16487,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H100" xr:uid="{17A61A31-01EE-4CD6-BF50-0668487343CE}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
@@ -18879,170 +17525,170 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="112" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C1">
-    <cfRule type="duplicateValues" dxfId="111" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="duplicateValues" dxfId="110" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="duplicateValues" dxfId="109" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="duplicateValues" dxfId="108" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="duplicateValues" dxfId="107" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="duplicateValues" dxfId="106" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="duplicateValues" dxfId="105" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="duplicateValues" dxfId="104" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="duplicateValues" dxfId="103" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="duplicateValues" dxfId="102" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="duplicateValues" dxfId="101" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="duplicateValues" dxfId="100" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="duplicateValues" dxfId="99" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="duplicateValues" dxfId="98" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="duplicateValues" dxfId="97" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="duplicateValues" dxfId="95" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="duplicateValues" dxfId="94" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="duplicateValues" dxfId="93" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="duplicateValues" dxfId="92" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="duplicateValues" dxfId="91" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="duplicateValues" dxfId="90" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="duplicateValues" dxfId="89" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="duplicateValues" dxfId="88" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="duplicateValues" dxfId="87" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="duplicateValues" dxfId="86" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="duplicateValues" dxfId="85" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="duplicateValues" dxfId="84" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="duplicateValues" dxfId="83" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="duplicateValues" dxfId="82" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="duplicateValues" dxfId="81" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1 A201:C1048576 A62:A200 C68:C200">
-    <cfRule type="duplicateValues" dxfId="80" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1 A201:C1048576 A62:A200 C68:C200">
-    <cfRule type="duplicateValues" dxfId="79" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1 A201:C1048576 A62:A200 C68:C200">
-    <cfRule type="duplicateValues" dxfId="78" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1 A201:C1048576 A62:A200 C68:C200">
-    <cfRule type="duplicateValues" dxfId="77" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1 A201:C1048576 A62:A200 C68:C200">
-    <cfRule type="duplicateValues" dxfId="76" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1 A201:C1048576 A62:A200 C68:C200">
-    <cfRule type="duplicateValues" dxfId="75" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1 A201:C1048576 A62:A200 C68:C200">
-    <cfRule type="duplicateValues" dxfId="74" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1 A201:C1048576 A62:A200 C68:C200">
-    <cfRule type="duplicateValues" dxfId="73" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1 A201:C1048576 A62:A200 C68:C200">
-    <cfRule type="duplicateValues" dxfId="72" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1 A201:C1048576 A62:A200 C68:C200">
-    <cfRule type="duplicateValues" dxfId="71" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1 A201:C1048576 A62:A200 C68:C200">
-    <cfRule type="duplicateValues" dxfId="70" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1 A201:C1048576 A62:A200 C68:C200">
-    <cfRule type="duplicateValues" dxfId="69" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1 A179:C1048576 A62:A178 C68:C178">
-    <cfRule type="duplicateValues" dxfId="68" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1 A179:C1048576 A62:A178 C60:C178">
-    <cfRule type="duplicateValues" dxfId="67" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1 A179:C1048576 A62:A178 C60:C178">
-    <cfRule type="duplicateValues" dxfId="66" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1 A171:C1048576 A62:A170 C53:C170">
-    <cfRule type="duplicateValues" dxfId="65" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1 A171:C1048576 A62:A170 C53:C170">
-    <cfRule type="duplicateValues" dxfId="64" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1 A171:C1048576 A62:A170 C53:C170">
-    <cfRule type="duplicateValues" dxfId="63" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1 A171:C1048576 A62:A170 C53:C170">
-    <cfRule type="duplicateValues" dxfId="62" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1 A171:C1048576 A62:A170 C53:C170">
-    <cfRule type="duplicateValues" dxfId="61" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1 A171:C1048576 A62:A170 C53:C170">
-    <cfRule type="duplicateValues" dxfId="60" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1 A171:C1048576 A62:A170 C53:C170">
-    <cfRule type="duplicateValues" dxfId="59" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1 A171:C1048576 A62:A170 C53:C170">
-    <cfRule type="duplicateValues" dxfId="58" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1 A99:C1048576 A48:A98 C19:C98">
-    <cfRule type="duplicateValues" dxfId="57" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
@@ -19052,7 +17698,541 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A85E85B1-8BD2-4AA7-9B0A-F4D53E35BC43}">
+  <dimension ref="A1:A100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="73.47265625" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="7" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="7" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="7" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="7" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="7" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="7" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="7" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="7" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="7" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="7" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="7" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="7" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="7" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="7" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="7" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="7" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="7" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="7" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="7" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="7" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="7" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="7" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="7" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="7" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="7" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="7" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="7" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="7" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="7" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="7" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="7" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="7" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="7" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="7" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="7" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="7" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="7" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="7" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="7" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="7" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="7" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="7" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="7" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="7" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="7" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="7" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="7" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="7" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="7" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="7" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="7" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="7" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="7" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="7" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="7" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="7" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="8" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="8" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="8" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="8" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="8" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="8" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="8" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="8" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="8" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="8" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="8" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="8" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="8" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="8" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="8" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="8" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="8" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="8" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="8" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="8" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="8" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="8" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="8" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="8" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="8" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="8" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="8" t="s">
+        <v>455</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005B43994436961F4CB55AD8AD558E5C3C" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="81e4a710e5f63e63358a311b9132c51b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3afad395-6890-4e36-9348-f92e38eb80c4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8870b6407775bc0de1e02a60910d2bd7" ns2:_="">
     <xsd:import namespace="3afad395-6890-4e36-9348-f92e38eb80c4"/>
@@ -19198,29 +18378,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED7F731C-D57F-4755-B2B7-FB2244D0AB06}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FA7C812-26A8-4A8B-9862-CE619AB15B2A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0F25CD6-4277-4FA2-8099-1C1D9184A431}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0F25CD6-4277-4FA2-8099-1C1D9184A431}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FA7C812-26A8-4A8B-9862-CE619AB15B2A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED7F731C-D57F-4755-B2B7-FB2244D0AB06}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3afad395-6890-4e36-9348-f92e38eb80c4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>